--- a/Documentation/Requrirements0.2.xlsx
+++ b/Documentation/Requrirements0.2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D72462-FC7F-44A4-8EC8-2AF6074CB40A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{A6D72462-FC7F-44A4-8EC8-2AF6074CB40A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{031A735F-021C-4F5B-8C5B-6292982FEAE7}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="150" windowWidth="15300" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,103 +25,103 @@
     <t>Requirements</t>
   </si>
   <si>
-    <t>system shall show a test case creation window after the user presses the "New Test Case" button</t>
-  </si>
-  <si>
-    <t>the test case creation window shall allow the user to input a positive integer value for the iterations textfield</t>
-  </si>
-  <si>
-    <t>the test case creation window shall allow the user to select a Solution Space from a drop down menu</t>
-  </si>
-  <si>
-    <t>the test case creation window shall disable none of the parameters if the Algorithms dropdown "Hybrid1" is selected</t>
-  </si>
-  <si>
-    <t>the test case creation window shall disable none of the parameters if the Algorithms dropdown "Hybrid2" is selected</t>
-  </si>
-  <si>
-    <t>the test case creation window shall disable only the inertia, CognitiveComponent, and Social Component textfields if the Algorithms dropdown "GA" is selected</t>
-  </si>
-  <si>
-    <t>the test case creation window shall disable only the mutationRate textfield, the GA Selection Dropdown, and the GA Crossover dropdown if the  Algorithms dropdown "PSO" is selected</t>
-  </si>
-  <si>
-    <t>the test case creation window shall allow the user to select an Algorithm from a drop down menu</t>
-  </si>
-  <si>
-    <t>the software's main window shall disable when the Test Case Creation Window has been shown</t>
-  </si>
-  <si>
-    <t>the test case creation window shall close if the user presses the "Cancel" button</t>
-  </si>
-  <si>
-    <t>the software's main window shall be enabled if the test case creation window has been closed</t>
-  </si>
-  <si>
-    <t>the test case creation window shall initialize a new test case button containing the algorithm name, the algorithms parameters, the solution space, and the number of iterations in the list of testcases on the main window after the "add" button is pressed</t>
-  </si>
-  <si>
-    <t>the software's main window shall allow the selection of added testcases by mouse click</t>
-  </si>
-  <si>
-    <t>the software's main window shall deselect all other added testcases if one test case has been selected</t>
-  </si>
-  <si>
-    <t>the software's main window shall deselect a selected test case if it regesters a mouse click</t>
-  </si>
-  <si>
-    <t>the software's main window shall remove a selected test case after the "remove test case" button has been pressed</t>
-  </si>
-  <si>
-    <t>the software's main window shall remove all test cases after the "Clear all" button has been pressed</t>
-  </si>
-  <si>
-    <t>the test case edit window shall allow the user to input a positive integer value for the iterations textfield</t>
-  </si>
-  <si>
-    <t>the test case edit window shall allow the user to select a Solution Space from a drop down menu</t>
-  </si>
-  <si>
-    <t>the test case edit window shall allow the user to select an Algorithm from a drop down menu</t>
-  </si>
-  <si>
-    <t>the test case edit window shall disable only the inertia, CognitiveComponent, and Social Component textfields if the Algorithms dropdown "GA" is selected</t>
-  </si>
-  <si>
-    <t>the test case edit window shall disable only the mutationRate textfield, the GA Selection Dropdown, and the GA Crossover dropdown if the  Algorithms dropdown "PSO" is selected</t>
-  </si>
-  <si>
-    <t>the test case edit window shall disable none of the parameters if the Algorithms dropdown "Hybrid1" is selected</t>
-  </si>
-  <si>
-    <t>the test case edit window shall disable none of the parameters if the Algorithms dropdown "Hybrid2" is selected</t>
-  </si>
-  <si>
-    <t>the test case edit window shall close if the user presses the "Cancel" button</t>
-  </si>
-  <si>
-    <t>the test case edit window shall edit the test case button containing the algorithm name, the algorithms parameters, the solution space, and the number of iterations in the list of testcases on the main window after the "add" button is pressed</t>
-  </si>
-  <si>
-    <t>the software shall show the test case edit window if and only if an added testcase is selected, and the "edit test case" button has been pressed</t>
-  </si>
-  <si>
-    <t>the software's main window shall be enabled if the test case edi window has been closed</t>
-  </si>
-  <si>
-    <t>the software's main window shall disable when the Test Case edit Window has been shown</t>
-  </si>
-  <si>
-    <t>the software shall run each test case 100 times averaging each of the test cases Algoirthm's population's solutions and returning that computed solution per iteration in the console after the Run All button has been selected</t>
-  </si>
-  <si>
-    <t>the software shall run each test case 100 times averaging each of the test cases Algorithm's population's solutions and saving that computed solution per iteration to a csv file after the Run All and Save button has been selected</t>
-  </si>
-  <si>
-    <t>the software shall run a selected test case 100 times averaging the population's solutions of the given Algorithm and returning that computed solution to the console per iteration, after the Run Selected button has been selected and a test case has been selected</t>
-  </si>
-  <si>
-    <t>the software shall run a selected test case 100 times averaging the polpulation's solutinos of the given Algorithm and saving that computed solution to csv file, after the Run Selected and Save button has been selected and a test case has been selected</t>
+    <t>System shall show a test case creation window after the user presses the "New Test Case" button</t>
+  </si>
+  <si>
+    <t>The software's main window shall disable when the Test Case Creation Window has been shown</t>
+  </si>
+  <si>
+    <t>The test case creation window shall allow the user to input a positive integer value for the iterations textfield</t>
+  </si>
+  <si>
+    <t>The test case creation window shall allow the user to select a Solution Space from a drop down menu</t>
+  </si>
+  <si>
+    <t>The test case creation window shall allow the user to select an Algorithm from a drop down menu</t>
+  </si>
+  <si>
+    <t>The test case creation window shall disable only the inertia, CognitiveComponent, and Social Component textfields if the Algorithms dropdown "GA" is selected</t>
+  </si>
+  <si>
+    <t>The test case creation window shall disable only the mutationRate textfield, the GA Selection Dropdown, and the GA Crossover dropdown if the  Algorithms dropdown "PSO" is selected</t>
+  </si>
+  <si>
+    <t>The test case creation window shall disable none of the parameters if the Algorithms dropdown "Hybrid1" is selected</t>
+  </si>
+  <si>
+    <t>The test case creation window shall disable none of the parameters if the Algorithms dropdown "Hybrid2" is selected</t>
+  </si>
+  <si>
+    <t>The test case creation window shall initialize a new test case button containing the algorithm name, the algorithms parameters, the solution space, and the number of iterations in the list of testcases on the main window after the "add" button is pressed</t>
+  </si>
+  <si>
+    <t>The test case creation window shall close if the user presses the "Cancel" button</t>
+  </si>
+  <si>
+    <t>The software's main window shall be enabled if the test case creation window has been closed</t>
+  </si>
+  <si>
+    <t>The software's main window shall allow the selection of added testcases by mouse click</t>
+  </si>
+  <si>
+    <t>The software's main window shall deselect all other added testcases if one test case has been selected</t>
+  </si>
+  <si>
+    <t>The software's main window shall deselect a selected test case if it regesters a mouse click</t>
+  </si>
+  <si>
+    <t>The software's main window shall remove a selected test case after the "remove test case" button has been pressed</t>
+  </si>
+  <si>
+    <t>The software's main window shall remove all test cases after the "Clear all" button has been pressed</t>
+  </si>
+  <si>
+    <t>The software shall show the test case edit window if and only if an added testcase is selected, and the "edit test case" button has been pressed</t>
+  </si>
+  <si>
+    <t>The software's main window shall disable when the Test Case edit Window has been shown</t>
+  </si>
+  <si>
+    <t>The test case edit window shall allow the user to input a positive integer value for the iterations textfield</t>
+  </si>
+  <si>
+    <t>The test case edit window shall allow the user to select a Solution Space from a drop down menu</t>
+  </si>
+  <si>
+    <t>The test case edit window shall allow the user to select an Algorithm from a drop down menu</t>
+  </si>
+  <si>
+    <t>The test case edit window shall disable only the inertia, CognitiveComponent, and Social Component textfields if the Algorithms dropdown "GA" is selected</t>
+  </si>
+  <si>
+    <t>The test case edit window shall disable only the mutationRate textfield, the GA Selection Dropdown, and the GA Crossover dropdown if the  Algorithms dropdown "PSO" is selected</t>
+  </si>
+  <si>
+    <t>The test case edit window shall disable none of the parameters if the Algorithms dropdown "Hybrid1" is selected</t>
+  </si>
+  <si>
+    <t>The test case edit window shall disable none of the parameters if the Algorithms dropdown "Hybrid2" is selected</t>
+  </si>
+  <si>
+    <t>The test case edit window shall edit the test case button containing the algorithm name, the algorithms parameters, the solution space, and the number of iterations in the list of testcases on the main window after the "add" button is pressed</t>
+  </si>
+  <si>
+    <t>The test case edit window shall close if the user presses the "Cancel" button</t>
+  </si>
+  <si>
+    <t>The software shall run each test case 100 times averaging each of the test cases Algoirthm's population's solutions and returning that computed solution per iteration in the console after the Run All button has been selected</t>
+  </si>
+  <si>
+    <t>The software shall run each test case 100 times averaging each of the test cases Algorithm's population's solutions and saving that computed solution per iteration to a csv file after the Run All and Save button has been selected</t>
+  </si>
+  <si>
+    <t>The software shall run a selected test case 100 times averaging the population's solutions of the given Algorithm and returning that computed solution to the console per iteration, after the Run Selected button has been selected and a test case has been selected</t>
+  </si>
+  <si>
+    <t>The software shall run a selected test case 100 times averaging the polpulation's solutinos of the given Algorithm and saving that computed solution to csv file, after the Run Selected and Save button has been selected and a test case has been selected</t>
+  </si>
+  <si>
+    <t>The software's main window shall be enabled if the test case edit window has been closed</t>
   </si>
 </sst>
 </file>
@@ -145,12 +145,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -165,9 +171,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,193 +457,193 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A43" sqref="A42:A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="163.85546875" customWidth="1"/>
+    <col min="1" max="1" width="163.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Requrirements0.2.xlsx
+++ b/Documentation/Requrirements0.2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{A6D72462-FC7F-44A4-8EC8-2AF6074CB40A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{031A735F-021C-4F5B-8C5B-6292982FEAE7}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{A6D72462-FC7F-44A4-8EC8-2AF6074CB40A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{AC9F8C07-43A8-427F-ACD9-84FB482CB92B}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="34">
   <si>
     <t>Requirements</t>
   </si>
@@ -145,18 +145,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -174,7 +168,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A43" sqref="A42:A43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Documentation/Requrirements0.2.xlsx
+++ b/Documentation/Requrirements0.2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{A6D72462-FC7F-44A4-8EC8-2AF6074CB40A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{031A735F-021C-4F5B-8C5B-6292982FEAE7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF84418E-891E-1147-A620-001BA7FA3A8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="460" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -138,25 +138,19 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -174,7 +168,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,191 +451,191 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A43" sqref="A42:A43"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="163.88671875" customWidth="1"/>
+    <col min="1" max="1" width="200.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>32</v>
       </c>
